--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/66_Sakarya_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/66_Sakarya_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95EC3E2-BDC3-48DA-A029-E2622F94C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38AB4BC8-F886-4474-962D-7368B55685D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{BA1202BD-5885-4909-9017-E12A8D14301C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{2266E5F5-C306-46D5-B693-82D69777DE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -936,13 +936,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1A74C0E4-721A-4DCF-B3D3-D36442550FB6}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{820DAD06-D259-4222-A2F5-966C8DBC175A}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{06B8A745-CD64-42C2-8120-C6DF71B97B9A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{1534F639-0923-496E-A5CC-53D25DCC7D5A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{FEEDC488-6BB6-4323-A86A-EAAFB7772386}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{AA872B9A-404D-48CB-A931-35186890D7B0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5C1831FF-2224-4499-9F5F-82C709F314A4}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D86E2D02-E806-4D9A-9398-A0FFD13665B2}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D983F7C1-4FB6-426C-9383-5A49D8F44EAF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A94BEE40-143C-4C74-BA0D-F91F65540F74}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B5183394-FF18-42F2-A4B8-65E69CCEC0AA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{AB391B60-A5A3-4552-A014-1FE6F6463D53}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{C2507AE8-EAE9-4615-8741-59B0173E5CA6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{089EC3EE-F878-4482-9D6D-33A6CD6F3FB4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F608FA-37FA-403E-A276-0E831A73D28F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF0BB81-D1B0-4F25-A5C8-32BF607C16EC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C344D863-0BB7-48C3-BFE1-66A33276062F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFFAE5C-6D73-4EE5-87B4-E765BD9ADC44}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3869,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC421064-9E69-4DB4-8FA7-2AC954774CC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3C5868-8ED1-4202-A0E2-EE347660C250}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5130,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CA3DAC-4DCB-4E49-9A5D-EEE37A1C9131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B561E090-01F1-442F-9CF3-97C7B5711A9E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6387,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406CEACF-5033-4292-BE9E-9D4B1970EF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3E61EE-5DF2-45BC-90D5-100578C47D26}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7680,7 +7680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA54402-752F-48E2-84B9-60848E23E21B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F494367-B560-4C5E-9F01-9A0ADEB0D0E6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8973,7 +8973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671226C8-9700-40A0-8500-D6CB60FF5AE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2FD060-3251-4220-B908-98513FE9EA42}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10266,7 +10266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592B5929-B389-418C-8BBC-1EBD19BB3393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA5015C-2A0A-4498-93BA-5B6FD6DB8B9F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11559,7 +11559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E854AF2-7491-4498-993D-FA3A979C0E05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1999E76C-DAAE-4B80-87ED-73F47D74E158}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12852,7 +12852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AED00E0-B69E-413F-88E5-BDA259775743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A14717-2A02-4C70-9EEC-6ED641DBB134}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14133,7 +14133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907A7078-B93C-427A-9E78-8A713A3B95E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A8B25A-FC43-407D-B2D0-04ADE90E442E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15414,7 +15414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2333DF6-569F-4B5A-AC06-CE1E1558A1F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DFD502-5CA3-4686-BF23-0A97ABD88A8C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
